--- a/Web/files/ELM forecasting/ALL DKI FORECAST/DKI2_FORECAST.xlsx
+++ b/Web/files/ELM forecasting/ALL DKI FORECAST/DKI2_FORECAST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Kuliah\TA\Projek-TA\Web\files\ELM forecasting\ALL DKI FORECAST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{052F072D-AC02-4B10-8C43-00C2CB497361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B658AB4-3E22-41ED-A60D-DA93C4C24042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3E89F719-5CF1-489C-A5D5-F26C1F730EE5}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +469,7 @@
         <v>44896</v>
       </c>
       <c r="B2" s="3">
-        <v>45.007682665611007</v>
+        <v>51.378785999999998</v>
       </c>
       <c r="C2" s="3">
         <v>45.007682665611007</v>

--- a/Web/files/ELM forecasting/ALL DKI FORECAST/DKI2_FORECAST.xlsx
+++ b/Web/files/ELM forecasting/ALL DKI FORECAST/DKI2_FORECAST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Kuliah\TA\Projek-TA\Web\files\ELM forecasting\ALL DKI FORECAST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B658AB4-3E22-41ED-A60D-DA93C4C24042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C8825F-3B13-4675-AA22-B06F5D6420C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3E89F719-5CF1-489C-A5D5-F26C1F730EE5}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" xr2:uid="{3E89F719-5CF1-489C-A5D5-F26C1F730EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="DKI 2" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,10 +469,10 @@
         <v>44896</v>
       </c>
       <c r="B2" s="3">
-        <v>51.378785999999998</v>
+        <v>45.007682665611007</v>
       </c>
       <c r="C2" s="3">
-        <v>45.007682665611007</v>
+        <v>31.246926210000002</v>
       </c>
       <c r="D2" s="3">
         <v>17.121440151718659</v>
@@ -492,7 +492,7 @@
         <v>56.97089205065501</v>
       </c>
       <c r="C3" s="3">
-        <v>56.97089205065501</v>
+        <v>32.464636249999998</v>
       </c>
       <c r="D3" s="3">
         <v>13.682170962108311</v>
@@ -512,7 +512,7 @@
         <v>55.391163549599923</v>
       </c>
       <c r="C4" s="3">
-        <v>55.391163549599923</v>
+        <v>35.1441199</v>
       </c>
       <c r="D4" s="3">
         <v>14.22355161678921</v>
@@ -532,7 +532,7 @@
         <v>65.344139464430896</v>
       </c>
       <c r="C5" s="3">
-        <v>65.344139464430896</v>
+        <v>36.81661398</v>
       </c>
       <c r="D5" s="3">
         <v>19.047922990876071</v>
@@ -552,7 +552,7 @@
         <v>51.874529091220673</v>
       </c>
       <c r="C6" s="3">
-        <v>51.874529091220673</v>
+        <v>32.838756609999997</v>
       </c>
       <c r="D6" s="3">
         <v>27.89738500639827</v>
@@ -572,7 +572,7 @@
         <v>51.896173479915497</v>
       </c>
       <c r="C7" s="3">
-        <v>51.896173479915497</v>
+        <v>31.73053827</v>
       </c>
       <c r="D7" s="3">
         <v>26.11084914756891</v>
@@ -592,7 +592,7 @@
         <v>61.701813545376638</v>
       </c>
       <c r="C8" s="3">
-        <v>61.701813545376638</v>
+        <v>33.694716309999997</v>
       </c>
       <c r="D8" s="3">
         <v>20.778901734699669</v>
@@ -612,7 +612,7 @@
         <v>55.757075647952462</v>
       </c>
       <c r="C9" s="3">
-        <v>55.757075647952462</v>
+        <v>33.779772960000003</v>
       </c>
       <c r="D9" s="3">
         <v>11.258105941484001</v>
@@ -632,7 +632,7 @@
         <v>56.61564672855819</v>
       </c>
       <c r="C10" s="3">
-        <v>56.61564672855819</v>
+        <v>32.705885979999998</v>
       </c>
       <c r="D10" s="3">
         <v>10.18739287033419</v>
@@ -652,7 +652,7 @@
         <v>47.749715603047107</v>
       </c>
       <c r="C11" s="3">
-        <v>47.749715603047107</v>
+        <v>31.984211080000001</v>
       </c>
       <c r="D11" s="3">
         <v>16.80691650705354</v>
@@ -672,7 +672,7 @@
         <v>52.521798118740051</v>
       </c>
       <c r="C12" s="3">
-        <v>52.521798118740051</v>
+        <v>31.181223630000002</v>
       </c>
       <c r="D12" s="3">
         <v>12.99018961306451</v>
@@ -692,7 +692,7 @@
         <v>55.684645377476237</v>
       </c>
       <c r="C13" s="3">
-        <v>55.684645377476237</v>
+        <v>31.288028440000001</v>
       </c>
       <c r="D13" s="3">
         <v>26.970776663934281</v>
@@ -712,7 +712,7 @@
         <v>52.100630406555467</v>
       </c>
       <c r="C14" s="3">
-        <v>52.100630406555467</v>
+        <v>32.233465639999999</v>
       </c>
       <c r="D14" s="3">
         <v>25.890537829295049</v>
@@ -732,7 +732,7 @@
         <v>56.96143835542906</v>
       </c>
       <c r="C15" s="3">
-        <v>56.96143835542906</v>
+        <v>32.1091689</v>
       </c>
       <c r="D15" s="3">
         <v>33.781761341894963</v>
@@ -752,7 +752,7 @@
         <v>57.143386394807962</v>
       </c>
       <c r="C16" s="3">
-        <v>57.143386394807962</v>
+        <v>31.529856980000002</v>
       </c>
       <c r="D16" s="3">
         <v>32.806874850675769</v>
@@ -772,7 +772,7 @@
         <v>49.690769997406314</v>
       </c>
       <c r="C17" s="3">
-        <v>49.690769997406314</v>
+        <v>31.752060369999999</v>
       </c>
       <c r="D17" s="3">
         <v>32.737689308924502</v>
@@ -792,7 +792,7 @@
         <v>56.83265093081711</v>
       </c>
       <c r="C18" s="3">
-        <v>56.83265093081711</v>
+        <v>33.437345460000003</v>
       </c>
       <c r="D18" s="3">
         <v>23.43037205731498</v>
@@ -812,7 +812,7 @@
         <v>49.467753315241417</v>
       </c>
       <c r="C19" s="3">
-        <v>49.467753315241417</v>
+        <v>33.953034770000002</v>
       </c>
       <c r="D19" s="3">
         <v>26.654716786721188</v>
@@ -832,7 +832,7 @@
         <v>50.185256680858593</v>
       </c>
       <c r="C20" s="3">
-        <v>50.185256680858593</v>
+        <v>32.989783359999997</v>
       </c>
       <c r="D20" s="3">
         <v>33.31784433989543</v>
@@ -852,7 +852,7 @@
         <v>60.430073991628703</v>
       </c>
       <c r="C21" s="3">
-        <v>60.430073991628703</v>
+        <v>32.528868750000001</v>
       </c>
       <c r="D21" s="3">
         <v>41.285636743182927</v>
@@ -872,7 +872,7 @@
         <v>50.945410801820593</v>
       </c>
       <c r="C22" s="3">
-        <v>50.945410801820593</v>
+        <v>32.867997090000003</v>
       </c>
       <c r="D22" s="3">
         <v>41.569897632688047</v>
@@ -892,7 +892,7 @@
         <v>52.088408975666233</v>
       </c>
       <c r="C23" s="3">
-        <v>52.088408975666233</v>
+        <v>32.840477640000003</v>
       </c>
       <c r="D23" s="3">
         <v>16.395836960532449</v>
@@ -912,7 +912,7 @@
         <v>47.349541957335369</v>
       </c>
       <c r="C24" s="3">
-        <v>47.349541957335369</v>
+        <v>32.607683979999997</v>
       </c>
       <c r="D24" s="3">
         <v>26.318941560558851</v>
@@ -932,7 +932,7 @@
         <v>51.513768569268542</v>
       </c>
       <c r="C25" s="3">
-        <v>51.513768569268542</v>
+        <v>32.173532999999999</v>
       </c>
       <c r="D25" s="3">
         <v>32.998420611520743</v>
@@ -952,7 +952,7 @@
         <v>50.856996917496659</v>
       </c>
       <c r="C26" s="3">
-        <v>50.856996917496659</v>
+        <v>31.729521770000002</v>
       </c>
       <c r="D26" s="3">
         <v>28.091296745052599</v>
@@ -972,7 +972,7 @@
         <v>51.310600477012557</v>
       </c>
       <c r="C27" s="3">
-        <v>51.310600477012557</v>
+        <v>31.861761220000002</v>
       </c>
       <c r="D27" s="3">
         <v>35.875489230306648</v>
@@ -992,7 +992,7 @@
         <v>44.224570054847312</v>
       </c>
       <c r="C28" s="3">
-        <v>44.224570054847312</v>
+        <v>32.369893779999998</v>
       </c>
       <c r="D28" s="3">
         <v>40.802479485155111</v>
@@ -1012,7 +1012,7 @@
         <v>49.114302476632552</v>
       </c>
       <c r="C29" s="3">
-        <v>49.114302476632552</v>
+        <v>32.556455249999999</v>
       </c>
       <c r="D29" s="3">
         <v>18.763933439611009</v>
@@ -1032,7 +1032,7 @@
         <v>42.314005337487743</v>
       </c>
       <c r="C30" s="3">
-        <v>42.314005337487743</v>
+        <v>32.15151007</v>
       </c>
       <c r="D30" s="3">
         <v>21.299129198696999</v>
@@ -1052,7 +1052,7 @@
         <v>49.268794964849548</v>
       </c>
       <c r="C31" s="3">
-        <v>49.268794964849548</v>
+        <v>32.228290020000003</v>
       </c>
       <c r="D31" s="3">
         <v>10.35794223361189</v>
@@ -1072,7 +1072,7 @@
         <v>46.135086342904827</v>
       </c>
       <c r="C32" s="3">
-        <v>46.135086342904827</v>
+        <v>32.79541184</v>
       </c>
       <c r="D32" s="3">
         <v>43.155910307154841</v>
